--- a/ceuntas casa.xlsx
+++ b/ceuntas casa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F4FFC7-6EEF-4A97-8A22-E17CE0F0980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA770B9-1878-4E3A-952D-7CCF6C916D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Febrero</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>quedan 30mil</t>
+  </si>
+  <si>
+    <t>petroleo</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +551,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>17</v>
